--- a/SVD_Files/Power.xlsx
+++ b/SVD_Files/Power.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,37 +240,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,308 +625,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+      <selection activeCell="I6" sqref="I6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C8:H8"/>
@@ -861,13 +973,8 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>